--- a/data/trans_dic/P19C06-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.002794903860379294</v>
+        <v>0.002767437939171149</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004993698582139096</v>
+        <v>0.00508921238509395</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002527195788049005</v>
+        <v>0.002564306392771021</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.002409664706968457</v>
+        <v>0.002399222648844648</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002390757339418798</v>
+        <v>0.002375858866480712</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002754091527538134</v>
+        <v>0.002741870457148673</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004073613353239166</v>
+        <v>0.004420610618148331</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0050798597388476</v>
+        <v>0.005039222938455014</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.004232525677724405</v>
+        <v>0.004187568359323459</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.001966258856107356</v>
+        <v>0.001963522858445416</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02803609447202294</v>
+        <v>0.02829424548331053</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03094597043004233</v>
+        <v>0.02709660970371974</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02146420535302921</v>
+        <v>0.02377131795510711</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04007732895252497</v>
+        <v>0.04504532007896657</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02402154615093273</v>
+        <v>0.02247181006837136</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02050575133611505</v>
+        <v>0.02045205065336126</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02515306195507311</v>
+        <v>0.0256593043635323</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02810712556299868</v>
+        <v>0.02704039718896618</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01956383776940668</v>
+        <v>0.02052848371053127</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01970648760229148</v>
+        <v>0.01981280038417286</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.019410073302914</v>
+        <v>0.0185823619050278</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02294059696081411</v>
+        <v>0.02297142964205805</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.01247545404007805</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.008281526146169154</v>
+        <v>0.008281526146169156</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00188688775196753</v>
+        <v>0.001604864356832951</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003054848981572003</v>
+        <v>0.003069076289023632</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003944500705557477</v>
+        <v>0.00395827526743313</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001797554171618935</v>
+        <v>0.001879558779468604</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.002090538591624129</v>
+        <v>0.002076271009117894</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005749714250663828</v>
+        <v>0.00573210373001447</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003572119139953968</v>
+        <v>0.004014049766920439</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.003090481858581422</v>
+        <v>0.003478154950205415</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.004403122758880214</v>
+        <v>0.004311302951945965</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.006592455135690583</v>
+        <v>0.006751689863147828</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.003255543568995406</v>
+        <v>0.003567692423276222</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01637855309482212</v>
+        <v>0.01628538388157836</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02107309180857928</v>
+        <v>0.02192993823696272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02577823350803845</v>
+        <v>0.02547099377228134</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02151223172955032</v>
+        <v>0.01830750545577857</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01778910546931286</v>
+        <v>0.01973378787743376</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02328311668318767</v>
+        <v>0.02198947668706771</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02816792131036815</v>
+        <v>0.02724108560822027</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02493196796168056</v>
+        <v>0.02501553684270441</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01317184158854551</v>
+        <v>0.01353556245725303</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01701607462108881</v>
+        <v>0.01677063302039573</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02035601277203961</v>
+        <v>0.02085173904744092</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01598664923629009</v>
+        <v>0.01618594398434002</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.009210799250183341</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.007776946531052751</v>
+        <v>0.007776946531052752</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.01106458952481044</v>
@@ -969,7 +969,7 @@
         <v>0.008475747851556255</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.004848464846252901</v>
+        <v>0.0048484648462529</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001876882793262919</v>
+        <v>0.001996297921738187</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004695123905660075</v>
+        <v>0.004854519394995099</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001828509034928783</v>
+        <v>0.001834340005006445</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006306322371105602</v>
+        <v>0.006465975476987968</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01380126023489516</v>
+        <v>0.01346128830157872</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002923866291882356</v>
+        <v>0.003201594229180882</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.003252174183609737</v>
+        <v>0.002863146676268673</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.006180214371973224</v>
+        <v>0.006649986319407305</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01143504795079452</v>
+        <v>0.01133122527668887</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004141342827520811</v>
+        <v>0.00370745707660605</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.002083331333811033</v>
+        <v>0.002042475249845128</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01807944915499429</v>
+        <v>0.02100908782850481</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02319637051739378</v>
+        <v>0.02511970064958774</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01893293333611395</v>
+        <v>0.01803202963608493</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.009531004486694581</v>
+        <v>0.01124893014472098</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02638929202760649</v>
+        <v>0.02639517760751478</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03898262415936139</v>
+        <v>0.03831987056107049</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02102713560432355</v>
+        <v>0.02218259621093063</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01571559036388276</v>
+        <v>0.01622984243447117</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01941279326996024</v>
+        <v>0.02000944112350945</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02775170852588125</v>
+        <v>0.02697381769795821</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01620025020162431</v>
+        <v>0.01592624957864275</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.009701027439256367</v>
+        <v>0.009119147568204988</v>
       </c>
     </row>
     <row r="13">
@@ -1119,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003954815812588441</v>
+        <v>0.004014450351548017</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005034631935862064</v>
+        <v>0.005078149385883076</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004208520917147449</v>
+        <v>0.004437846699962967</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01108986569404693</v>
+        <v>0.01086582978832669</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.007506587584461477</v>
+        <v>0.008294308945022973</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003839657746673892</v>
+        <v>0.003946923527730044</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.009369137067033269</v>
+        <v>0.009963365336535036</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.007783185643979952</v>
+        <v>0.006739914588032988</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.008777103690784001</v>
+        <v>0.008940820230686954</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.005804211985253753</v>
+        <v>0.005673738917730907</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.008861320859206743</v>
+        <v>0.008632276303851581</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01660808995896561</v>
+        <v>0.01642795891831403</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03201717278567687</v>
+        <v>0.02971238576153544</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03143381330372159</v>
+        <v>0.02932940370900798</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02272280309776963</v>
+        <v>0.02319860067253155</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03935988859816004</v>
+        <v>0.03882705846217717</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03112347707784213</v>
+        <v>0.03248333555117405</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02197243322345704</v>
+        <v>0.02384421092044146</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02439877490684446</v>
+        <v>0.02463464734865215</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02219098862432911</v>
+        <v>0.02343026682859532</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02476886055650759</v>
+        <v>0.02616082862296821</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0216219182297592</v>
+        <v>0.02058095580945922</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0213574186019053</v>
+        <v>0.02004533982921853</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01050881017552312</v>
+        <v>0.01044877210018971</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002699352947440129</v>
+        <v>0.002698818279446079</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.005587696927258124</v>
+        <v>0.005555555786046711</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.004149566556710498</v>
+        <v>0.004213798009581544</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.005250969118588186</v>
+        <v>0.005266476006727251</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01135488311969809</v>
+        <v>0.01133127268084396</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.008318290762028226</v>
+        <v>0.00819926637512545</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.006716725889005967</v>
+        <v>0.007673984018942133</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.005297794184125145</v>
+        <v>0.005385446286807109</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01142366655202177</v>
+        <v>0.01151403128088979</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.007749880883982099</v>
+        <v>0.007824821157133073</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0484148020389601</v>
+        <v>0.04984000209789193</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02611778868718974</v>
+        <v>0.02386907650869816</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04174917285600363</v>
+        <v>0.04098377813875574</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02032522889697925</v>
+        <v>0.02044890915103782</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0278295474962642</v>
+        <v>0.02868012304085943</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02989130643029152</v>
+        <v>0.02947697068166398</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04300872749281591</v>
+        <v>0.04317896058122227</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02470917727932275</v>
+        <v>0.0241032463183577</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02843478041935389</v>
+        <v>0.02901117768525248</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02164391355207792</v>
+        <v>0.02139973373807568</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03605653411362959</v>
+        <v>0.03301909482648276</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01895857161753302</v>
+        <v>0.01862757263761263</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.004333298027437966</v>
+        <v>0.004293305825081182</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.004454316045844393</v>
+        <v>0.004431523972223989</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.003214013749722608</v>
+        <v>0.003081372044579003</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.002970216303473659</v>
+        <v>0.00294422704317882</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.003677982468886978</v>
+        <v>0.003667219228887956</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.005010550613250883</v>
+        <v>0.005003626637552466</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.003841286520571242</v>
+        <v>0.003846540194644232</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.003333687038878515</v>
+        <v>0.003330188143269411</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.005994790947744509</v>
+        <v>0.00610241712043339</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.005302398870233614</v>
+        <v>0.005439294014551474</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04060894293206248</v>
+        <v>0.04148425913387826</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02607107197055456</v>
+        <v>0.0254667350660754</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04003323235458048</v>
+        <v>0.0403079890565288</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.01973122372568227</v>
+        <v>0.02164531180201543</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02360911318588043</v>
+        <v>0.02500579352592493</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02519202410643679</v>
+        <v>0.02526428956696201</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03476912909356578</v>
+        <v>0.03434812737182508</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.02084421269225259</v>
+        <v>0.02075410379724886</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02472115694100866</v>
+        <v>0.0225301640306526</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01999086215582426</v>
+        <v>0.01886271848303095</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02823254751939863</v>
+        <v>0.02819385967871359</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.01575405548787882</v>
+        <v>0.01710147580462046</v>
       </c>
     </row>
     <row r="22">
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.007488700755270823</v>
+        <v>0.007482945256679469</v>
       </c>
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="n">
@@ -1537,25 +1537,25 @@
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.003630157119888459</v>
+        <v>0.003602102417155825</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.005227882272668396</v>
+        <v>0.005288902705761948</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.002968894900326492</v>
+        <v>0.002864952043099911</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.003321716117970673</v>
+        <v>0.003384806229225049</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.002256273849321664</v>
+        <v>0.002232727371098293</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.007735324702221293</v>
+        <v>0.006507714668044666</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.002858538321942217</v>
+        <v>0.003088180713302481</v>
       </c>
     </row>
     <row r="24">
@@ -1566,38 +1566,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07527577042587295</v>
+        <v>0.07940338340451834</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.04210778986674934</v>
+        <v>0.04189635822123276</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01390224139476311</v>
+        <v>0.01255935944355356</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02747226400138304</v>
+        <v>0.02689064844203796</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03080106279635114</v>
+        <v>0.03116397873607162</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05100357470460888</v>
+        <v>0.0530920383779921</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.01553073419249164</v>
+        <v>0.01424661769164493</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0309310315877956</v>
+        <v>0.03271478164681942</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02004919994028514</v>
+        <v>0.02043300111024168</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03800479878855444</v>
+        <v>0.03837751417985601</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.01115500307837641</v>
+        <v>0.01098698201970675</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>0.01186144532022465</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.007683582821886484</v>
+        <v>0.007683582821886486</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.0113049266740139</v>
@@ -1645,7 +1645,7 @@
         <v>0.01263311886270478</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.009371387981608154</v>
+        <v>0.009371387981608156</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.007147232851096902</v>
+        <v>0.007156884207620992</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.006680149521062651</v>
+        <v>0.006726138565788882</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.008133121728030129</v>
+        <v>0.007907948687461235</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.005091376514890156</v>
+        <v>0.00480042045018388</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.008086496470269313</v>
+        <v>0.007911422793353384</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01006907109977965</v>
+        <v>0.01077359374258148</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.009128408233092128</v>
+        <v>0.009693770657563288</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.008481152975360976</v>
+        <v>0.008095209391692334</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.008656045164250567</v>
+        <v>0.008725999643284918</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.009427517940338385</v>
+        <v>0.009810404176243291</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.009849704873866494</v>
+        <v>0.0095505027239339</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.007479909920151092</v>
+        <v>0.00739150125303964</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01598676159928088</v>
+        <v>0.01562843073179364</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0143253067143151</v>
+        <v>0.01452863850705079</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01702566022041163</v>
+        <v>0.01712989639035469</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01172433349535105</v>
+        <v>0.01152544816835177</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0161338084125114</v>
+        <v>0.01584496231151602</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01895871762787916</v>
+        <v>0.01920581754949181</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01799736164018128</v>
+        <v>0.01889031630622855</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01453923036879515</v>
+        <v>0.01389923061570041</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01429731763218028</v>
+        <v>0.01444026151979718</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01540727137272386</v>
+        <v>0.015335866984293</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.01622841290401865</v>
+        <v>0.01579545046547381</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.01174222857486746</v>
+        <v>0.0117486007640259</v>
       </c>
     </row>
     <row r="28">
@@ -2007,40 +2007,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1893</v>
+        <v>1930</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>892</v>
+        <v>905</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2997</v>
+        <v>3252</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3811</v>
+        <v>3780</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2983</v>
+        <v>2951</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="7">
@@ -2051,40 +2051,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10076</v>
+        <v>10169</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11734</v>
+        <v>10274</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7573</v>
+        <v>8387</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15183</v>
+        <v>17066</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9038</v>
+        <v>8455</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7607</v>
+        <v>7588</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8852</v>
+        <v>9030</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9647</v>
+        <v>9281</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14392</v>
+        <v>15102</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>14783</v>
+        <v>14863</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>13680</v>
+        <v>13096</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>16565</v>
+        <v>16588</v>
       </c>
     </row>
     <row r="8">
@@ -2187,40 +2187,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1086</v>
+        <v>924</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1945</v>
+        <v>1952</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>985</v>
+        <v>1029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2856</v>
+        <v>2847</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1724</v>
+        <v>1937</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3472</v>
+        <v>3908</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5090</v>
+        <v>4984</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6525</v>
+        <v>6683</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3023</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="11">
@@ -2231,40 +2231,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9430</v>
+        <v>9377</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12586</v>
+        <v>13098</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12711</v>
+        <v>12559</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9592</v>
+        <v>8163</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9743</v>
+        <v>10808</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13011</v>
+        <v>12288</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13992</v>
+        <v>13531</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12032</v>
+        <v>12073</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14798</v>
+        <v>15207</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>19672</v>
+        <v>19388</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>20148</v>
+        <v>20639</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>14844</v>
+        <v>15029</v>
       </c>
     </row>
     <row r="12">
@@ -2367,40 +2367,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>944</v>
+        <v>1004</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2754</v>
+        <v>2848</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3806</v>
+        <v>3903</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>9087</v>
+        <v>8863</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1676</v>
+        <v>1835</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1975</v>
+        <v>1739</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6838</v>
+        <v>7358</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>14237</v>
+        <v>14108</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4684</v>
+        <v>4193</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>2518</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="15">
@@ -2411,40 +2411,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9093</v>
+        <v>10566</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13608</v>
+        <v>14736</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10562</v>
+        <v>10059</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5729</v>
+        <v>6762</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15928</v>
+        <v>15931</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>25667</v>
+        <v>25230</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12050</v>
+        <v>12712</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>9544</v>
+        <v>9856</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>21480</v>
+        <v>22140</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>34553</v>
+        <v>33584</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>18322</v>
+        <v>18012</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>11723</v>
+        <v>11020</v>
       </c>
     </row>
     <row r="16">
@@ -2550,37 +2550,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2147</v>
+        <v>2179</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2580</v>
+        <v>2602</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2855</v>
+        <v>3010</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4871</v>
+        <v>4772</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4229</v>
+        <v>4673</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2092</v>
+        <v>2151</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6762</v>
+        <v>7191</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6568</v>
+        <v>5688</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>9709</v>
+        <v>9890</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6137</v>
+        <v>5999</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>12406</v>
+        <v>12086</v>
       </c>
     </row>
     <row r="19">
@@ -2591,40 +2591,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6722</v>
+        <v>6649</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17380</v>
+        <v>16129</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16106</v>
+        <v>15028</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15413</v>
+        <v>15736</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17286</v>
+        <v>17052</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>17533</v>
+        <v>18300</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>11972</v>
+        <v>12992</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>17610</v>
+        <v>17780</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>18728</v>
+        <v>19774</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>27399</v>
+        <v>28939</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>22860</v>
+        <v>21759</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>29902</v>
+        <v>28065</v>
       </c>
     </row>
     <row r="20">
@@ -2727,40 +2727,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2862</v>
+        <v>2846</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>975</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2073</v>
+        <v>2061</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2462</v>
+        <v>2500</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2052</v>
+        <v>2058</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>4495</v>
+        <v>4486</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>4956</v>
+        <v>4886</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3972</v>
+        <v>4539</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3984</v>
+        <v>4050</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>8761</v>
+        <v>8830</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>9216</v>
+        <v>9305</v>
       </c>
     </row>
     <row r="23">
@@ -2771,40 +2771,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13186</v>
+        <v>13574</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>9437</v>
+        <v>8624</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>15489</v>
+        <v>15205</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>12060</v>
+        <v>12133</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>8880</v>
+        <v>9151</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11679</v>
+        <v>11517</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>17026</v>
+        <v>17093</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>14723</v>
+        <v>14362</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>16817</v>
+        <v>17158</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>16277</v>
+        <v>16093</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>27651</v>
+        <v>25322</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>22546</v>
+        <v>22152</v>
       </c>
     </row>
     <row r="24">
@@ -2907,40 +2907,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1278</v>
+        <v>1226</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>3040</v>
+        <v>3094</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>4383</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="27">
@@ -2951,40 +2951,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8640</v>
+        <v>8826</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6843</v>
+        <v>6685</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9213</v>
+        <v>9276</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7848</v>
+        <v>8609</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5830</v>
+        <v>6175</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7572</v>
+        <v>7594</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9629</v>
+        <v>9513</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>8941</v>
+        <v>8902</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11364</v>
+        <v>10357</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>11256</v>
+        <v>10621</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>14316</v>
+        <v>14296</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>13023</v>
+        <v>14137</v>
       </c>
     </row>
     <row r="28">
@@ -3100,25 +3100,25 @@
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1191</v>
+        <v>1205</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1323</v>
+        <v>1277</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1113</v>
+        <v>1134</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2900</v>
+        <v>2440</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>2139</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="31">
@@ -3129,38 +3129,38 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>9542</v>
+        <v>10065</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>6192</v>
+        <v>6161</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>4204</v>
+        <v>3798</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>5720</v>
+        <v>5599</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>9315</v>
+        <v>9424</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>11623</v>
+        <v>12099</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>6923</v>
+        <v>6351</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>10361</v>
+        <v>10959</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>9771</v>
+        <v>9958</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>14249</v>
+        <v>14389</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>8346</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="32">
@@ -3263,40 +3263,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>17545</v>
+        <v>17568</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>19470</v>
+        <v>19604</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>21669</v>
+        <v>21069</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>17299</v>
+        <v>16310</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>22165</v>
+        <v>21685</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>31670</v>
+        <v>33886</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>26174</v>
+        <v>27795</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>30748</v>
+        <v>29349</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>44974</v>
+        <v>45337</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>57130</v>
+        <v>59450</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>54485</v>
+        <v>52830</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>52532</v>
+        <v>51911</v>
       </c>
     </row>
     <row r="35">
@@ -3307,40 +3307,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>39243</v>
+        <v>38364</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>41753</v>
+        <v>42346</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>45362</v>
+        <v>45640</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>39836</v>
+        <v>39160</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>44222</v>
+        <v>43430</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>59630</v>
+        <v>60408</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>51604</v>
+        <v>54164</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>52711</v>
+        <v>50391</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>74284</v>
+        <v>75027</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>93367</v>
+        <v>92934</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>89770</v>
+        <v>87375</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>82467</v>
+        <v>82512</v>
       </c>
     </row>
     <row r="36">
